--- a/output/INV_2025_00244.xlsx
+++ b/output/INV_2025_00244.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,375 +422,1667 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Extracted Data</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TAXES</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TAXABLE
+AMOUNT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(ELORA ELORA SUPPLY &amp; LOGISTICS LIMITED</t>
-        </is>
-      </c>
+          <t>MIBISCO BREAD CRUMBS
+500GMS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>181.50</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>181.5 KSh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>210.54 KSh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chady Road,Syokimau</t>
-        </is>
-      </c>
+          <t>ZESTA CHOMA SAUCE 400GMS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>107.70</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>107.7 KSh</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>124.93 KSh</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUPPLY &amp; LOGISTICS LTD.</t>
-        </is>
-      </c>
+          <t>ZESTA TOMATO SAUCE 400GMS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>63.20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.2 KSh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>73.31 KSh</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>‘Competence. Reliability. Performance. Kenya</t>
-        </is>
-      </c>
+          <t>PEP LIME CORDIAL 700ML</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>108.40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>108.4 KSh</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>125.74 KSh</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Competence Reliability Performance Mobile:</t>
-        </is>
-      </c>
+          <t>LEPIDOR LINGUINE 500GMS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2.0 Pkt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>180.80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>361.6 KSh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>419.46 KSh</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Email:sales@eloraholdings.com</t>
-        </is>
-      </c>
+          <t>CLOVERS - CHILLI SAUCE 250GMS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>44.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.5 KSh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>51.62 KSh</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>kelvin.kahuho@eloraholding.com Invoice KRACU0400000280/32 1</t>
-        </is>
-      </c>
+          <t>ZESTA STRAWBERRY JAM 1KG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>337.10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>337.1 KSh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>391.04 KSh</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Invoice Date Due Date Delivery Date Source</t>
-        </is>
-      </c>
+          <t>PEP MAPLE SYRUP 500GMS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>196.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>196.0 KSh</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>227.36 KSh</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>02/03/2025 02/03/2025 02/03/2025 S00497</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.0 Pcs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>326.70</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>326.7 KSh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>378.97 KSh</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DESCRIPTION QUANTITY | UNIT PRICE | TAXES TARE TOTAL AMOUNT</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TAXABLE
+AMOUNT
+(KSH)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAX
+AMOUNT
+(KSH)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
-        </is>
-      </c>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1726.70</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>276.27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2002.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIBISCO BREAD CRUMBS 1.0 Pcs 181.50 16% 181.5 KSh 210.54 KSh</t>
-        </is>
-      </c>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>500GMS</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZESTA CHOMA SAUCE 400GMS 1.0 Pcs 107.70 16% 107.7 KSh 124.93 KSh</t>
-        </is>
-      </c>
+          <t>Non-VAT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZESTA TOMATO SAUCE 400GMS 1.0 Pcs 63.20 16% 63.2 KSh 73.31 KSh</t>
-        </is>
-      </c>
+          <t>Exempt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PEP LIME CORDIAL 700ML 1.0 Pcs 108.40 16% 108.4 KSh 125.74 KSh</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1726.70</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>276.27</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LEPIDOR LINGUINE 500GMS 2.0 Pkt 180.80 16% 361.6 KSh 419.46 KSh</t>
-        </is>
-      </c>
+          <t>(ELORA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ELORA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SUPPLY</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&amp;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LOGISTICS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LIMITED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CLOVERS - CHILLI SAUCE 250GMS 1.0 Pcs 44.50 16% 44.5 KSh 51.62 KSh</t>
-        </is>
-      </c>
+          <t>Chady</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Road,Syokimau</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZESTA STRAWBERRY JAM 1KG 1.0 Pcs 337.10 16% 337.1 KSh 391.04 KSh</t>
-        </is>
-      </c>
+          <t>SUPPLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>&amp;</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LOGISTICS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LTD.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PEP MAPLE SYRUP 500GMS 1.0 Pcs 196.00 16% 196.0 KSh 227.36 KSh</t>
-        </is>
-      </c>
+          <t>‘Competence.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reliability.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Performance.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Kenya.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FESTIVA BBQ SAUCE 510GMS 1.0 Pcs 326.70 16% 326.7 KSh 378.97 KSh</t>
-        </is>
-      </c>
+          <t>Competence</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mobile:</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Payment Communication: INV/2025/00244 AMOUNT</t>
-        </is>
-      </c>
+          <t>Email:sales@eloraholdings.com</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(KSH)</t>
-        </is>
-      </c>
+          <t>kelvin.kahuho@eloraholding.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>nvoice</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KRAC</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>04000002</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80/3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16% 1726.70 276.27} 2002.97</t>
-        </is>
-      </c>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Due</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8% 0.00 0.00 0.00</t>
-        </is>
-      </c>
+          <t>02/03/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>02/03/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>02/03/2025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S00497</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0% 0.00 0.00 0.00</t>
-        </is>
-      </c>
+          <t>TAXABLE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Non-VAT 0.00 0.00 0.00</t>
-        </is>
-      </c>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PRICE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TAXES</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Exempt 0.00 0.00 0.00</t>
-        </is>
-      </c>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total 1726.70 276.27} 2002.97</t>
+          <t>MIBISCO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BREAD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CRUMBS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pcs</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>181.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>181.5</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>210.54</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>KSh</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P052365236D</t>
-        </is>
-      </c>
+          <t>500GMS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Page 1/2</t>
-        </is>
-      </c>
+          <t>ZESTA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CHOMA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SAUCE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>400GMS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>107.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>107.7</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>124.93</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(ELORA</t>
-        </is>
-      </c>
+          <t>ZESTA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TOMATO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SAUCE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>400GMS</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>63.2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SUPPLY &amp; LOGISTICS LTD.</t>
-        </is>
-      </c>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LIME</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CORDIAL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>700ML</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>108.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>108.4</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>125.74</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Competence. Reliability. Performance.</t>
-        </is>
-      </c>
+          <t>LEPIDOR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LINGUINE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>500GMS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pkt</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>180.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>361.6</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>419.46</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Competence Reliability Performance</t>
-        </is>
-      </c>
+          <t>CLOVERS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CHILLI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SAUCE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>250GMS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>44.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SCU Information</t>
-        </is>
-      </c>
+          <t>ZESTA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>STRAWBERRY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>337.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>337.1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>391.04</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Date: 2025-02-03 Time: 14:08:37</t>
-        </is>
-      </c>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAPLE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SYRUP</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>500GMS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>196.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>227.36</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SCU ID: KRACU0400000280</t>
-        </is>
-      </c>
+          <t>FESTIVA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BBQ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SAUCE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>510GMS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>326.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>326.7</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>378.97</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>KSh</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Receipt Number: 321</t>
-        </is>
-      </c>
+          <t>TAXABLE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TAX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Payment Method: BANK CHEQUE</t>
-        </is>
-      </c>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Communication:</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>INV/2025/00244</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TAX</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RATE|</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>AMOUNT]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>AMOUNT]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Item Count: 9</t>
-        </is>
-      </c>
+          <t>(KSH)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(KSH)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>(KSH)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Internal Data:</t>
-        </is>
-      </c>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1726.70</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>276.27</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2002.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MZO4-I6PV-XSYO-E2IB-26MZ-CYDV-XQ</t>
-        </is>
-      </c>
+          <t>e%</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>000,000,000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Receipt Signature: 2ECY-WKAD-XUP6-IRXX</t>
-        </is>
-      </c>
+          <t>jo%</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>000,</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0000.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terms &amp; Conditions: https://eloraholding-elora.odoo.com/terms</t>
-        </is>
-      </c>
+          <t>fsenst</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€00,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ELORA SUPPLY &amp; LOGISTICS LIMITED</t>
-        </is>
-      </c>
+          <t>1726.70</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>276.27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2002.97</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chady Road,Syokimau</t>
-        </is>
-      </c>
+          <t>P052365236D</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kenya.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mobile:</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Email:sales@eloraholdings.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P052365236D</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Page 2/2</t>
-        </is>
-      </c>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
